--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="323">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T18:02:33+00:00</t>
+    <t>2022-02-16T18:21:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -909,6 +909,10 @@
   </si>
   <si>
     <t>ManufacturedItemDefinition.manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/Organization-uv-epi)
+</t>
   </si>
   <si>
     <t>Manufacturer of the item (Note that this should be named "manufacturer" but it currently causes technical issues)</t>
@@ -6476,13 +6480,13 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6548,7 +6552,7 @@
         <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>71</v>
@@ -6559,7 +6563,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6585,10 +6589,10 @@
         <v>169</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6618,10 +6622,10 @@
         <v>214</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>71</v>
@@ -6639,7 +6643,7 @@
         <v>71</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>72</v>
@@ -6654,7 +6658,7 @@
         <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>71</v>
@@ -6665,7 +6669,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6688,13 +6692,13 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6745,7 +6749,7 @@
         <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>72</v>
@@ -6760,7 +6764,7 @@
         <v>93</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>71</v>
@@ -6771,7 +6775,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6877,7 +6881,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6985,11 +6989,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7011,10 +7015,10 @@
         <v>127</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>130</v>
@@ -7069,7 +7073,7 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>72</v>
@@ -7095,7 +7099,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7121,10 +7125,10 @@
         <v>169</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7154,10 +7158,10 @@
         <v>214</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>71</v>
@@ -7175,7 +7179,7 @@
         <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>81</v>
@@ -7190,7 +7194,7 @@
         <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>71</v>
@@ -7201,7 +7205,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7224,13 +7228,13 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7281,7 +7285,7 @@
         <v>71</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
@@ -7296,7 +7300,7 @@
         <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>71</v>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T18:21:09+00:00</t>
+    <t>2022-02-17T07:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:42:42+00:00</t>
+    <t>2022-02-17T14:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T14:13:17+00:00</t>
+    <t>2022-02-22T09:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T09:12:17+00:00</t>
+    <t>2022-02-22T11:48:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:48:03+00:00</t>
+    <t>2022-02-22T14:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:48:55+00:00</t>
+    <t>2022-02-22T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:32:49+00:00</t>
+    <t>2022-02-22T16:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:56:55+00:00</t>
+    <t>2022-02-22T17:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T17:53:34+00:00</t>
+    <t>2022-02-24T10:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T10:57:23+00:00</t>
+    <t>2022-02-24T14:55:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$55</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="346">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T14:55:32+00:00</t>
+    <t>2022-03-17T13:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,269 +456,266 @@
     <t>Unique identifier.</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.6.0</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/ig/gravitate-health/ValueSet/manufacturedItemIdSystems</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.status</t>
+  </si>
+  <si>
+    <t>draft|active|retired|unknown</t>
+  </si>
+  <si>
+    <t>The status of this item. Enables tracking the life-cycle of the content.</t>
+  </si>
+  <si>
+    <t>Allows filtering of manufactured items that are appropriate for use versus not.</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.6.0|4.6.0</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm</t>
+  </si>
+  <si>
+    <t>Dose form as manufactured (before any necessary transformation)</t>
+  </si>
+  <si>
+    <t>Dose form as manufactured and before any transformation into the pharmaceutical product.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Dose form for a medication, in the form suitable for administering to the patient, after mixing, where necessary.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/manufactured-dose-form</t>
+  </si>
+  <si>
+    <t>Manufactured Item.Manufactured Dose Form</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.id</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.extension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>n/a</t>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
   </si>
   <si>
     <t>spor</t>
   </si>
   <si>
     <t>SPOR (Europe)</t>
-  </si>
-  <si>
-    <t>EMA - SPOR product identifier</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>official</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.6.0</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>https://spor.ema.europa.eu/pmswi</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.identifier.value</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.status</t>
-  </si>
-  <si>
-    <t>draft | active | retired | unknown</t>
-  </si>
-  <si>
-    <t>The status of this item. Enables tracking the life-cycle of the content.</t>
-  </si>
-  <si>
-    <t>Allows filtering of manufactured items that are appropriate for use versus not.</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.6.0|4.6.0</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm</t>
-  </si>
-  <si>
-    <t>Dose form as manufactured (before any necessary transformation)</t>
-  </si>
-  <si>
-    <t>Dose form as manufactured and before any transformation into the pharmaceutical product.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Dose form for a medication, in the form suitable for administering to the patient, after mixing, where necessary.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/manufactured-dose-form</t>
-  </si>
-  <si>
-    <t>Manufactured Item.Manufactured Dose Form</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.id</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.extension</t>
-  </si>
-  <si>
-    <t>ManufacturedItemDefinition.manufacturedDoseForm.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
   </si>
   <si>
     <t>EMA - SPOR Referential</t>
@@ -955,6 +949,10 @@
     <t>General characteristics of this item.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:type}
+</t>
+  </si>
+  <si>
     <t>Manufactured Item.Physical Characteristics</t>
   </si>
   <si>
@@ -1013,6 +1011,114 @@
   </si>
   <si>
     <t>Physical Characteristics, attribute's value</t>
+  </si>
+  <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/medicationknowledge-characteristic"/&gt;
+    &lt;code value="color"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>flavour</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.eu/fhir/ig/gravitate-health/CodeSystem/gravitate"/&gt;
+    &lt;code value="flavor"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/medicationknowledge-characteristic"/&gt;
+    &lt;code value="scoring"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/medicationknowledge-characteristic"/&gt;
+    &lt;code value="shape"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/medicationknowledge-characteristic"/&gt;
+    &lt;code value="size"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/medicationknowledge-characteristic"/&gt;
+    &lt;code value="image"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment
+</t>
+  </si>
+  <si>
+    <t>imprint</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/medicationknowledge-characteristic"/&gt;
+    &lt;code value="imprintcd"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Attachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.property.value[x].id</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.property.value[x].extension</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.property.value[x].coding</t>
+  </si>
+  <si>
+    <t>ManufacturedItemDefinition.property.value[x].text</t>
   </si>
 </sst>
 </file>
@@ -1141,21 +1247,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1322,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL55"/>
+  <dimension ref="A1:AL101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1332,7 +1423,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="68.91796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1355,7 +1446,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="104.42578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.2421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.78515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -1487,7 +1578,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
@@ -1593,7 +1684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>80</v>
       </c>
@@ -1701,7 +1792,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>88</v>
       </c>
@@ -1807,7 +1898,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>94</v>
       </c>
@@ -1915,7 +2006,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>100</v>
       </c>
@@ -2023,7 +2114,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>109</v>
       </c>
@@ -2131,7 +2222,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>117</v>
       </c>
@@ -2239,7 +2330,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>125</v>
       </c>
@@ -2347,7 +2438,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>133</v>
       </c>
@@ -2457,7 +2548,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>138</v>
       </c>
@@ -2527,14 +2618,16 @@
         <v>71</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AB11" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AC11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>138</v>
@@ -2552,7 +2645,7 @@
         <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>71</v>
@@ -2563,11 +2656,9 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>71</v>
       </c>
@@ -2576,25 +2667,25 @@
         <v>72</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2645,44 +2736,44 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>71</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>148</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>71</v>
@@ -2694,15 +2785,17 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M13" s="2"/>
+      <c r="M13" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>71</v>
@@ -2739,31 +2832,31 @@
         <v>71</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>71</v>
@@ -2772,46 +2865,48 @@
         <v>71</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>71</v>
       </c>
@@ -2835,43 +2930,41 @@
         <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>71</v>
@@ -2880,12 +2973,12 @@
         <v>71</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2902,25 +2995,25 @@
         <v>71</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>71</v>
@@ -2930,7 +3023,7 @@
         <v>71</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>71</v>
@@ -2945,11 +3038,11 @@
         <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>71</v>
@@ -2967,7 +3060,7 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
@@ -2988,12 +3081,12 @@
         <v>71</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3001,7 +3094,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>81</v>
@@ -3016,19 +3109,19 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>71</v>
@@ -3041,7 +3134,7 @@
         <v>71</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>71</v>
@@ -3053,11 +3146,11 @@
         <v>71</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>71</v>
@@ -3075,7 +3168,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -3096,12 +3189,12 @@
         <v>71</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3124,20 +3217,18 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>71</v>
       </c>
@@ -3146,10 +3237,10 @@
         <v>71</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>71</v>
@@ -3185,7 +3276,7 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
@@ -3206,12 +3297,12 @@
         <v>71</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3234,17 +3325,15 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>71</v>
@@ -3257,7 +3346,7 @@
         <v>71</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>71</v>
@@ -3293,7 +3382,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -3314,12 +3403,12 @@
         <v>71</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3342,15 +3431,17 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>71</v>
@@ -3399,7 +3490,7 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -3420,12 +3511,12 @@
         <v>71</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3433,7 +3524,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>81</v>
@@ -3442,22 +3533,22 @@
         <v>71</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3483,13 +3574,13 @@
         <v>71</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>71</v>
@@ -3507,10 +3598,10 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -3522,18 +3613,18 @@
         <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>204</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3547,26 +3638,24 @@
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>71</v>
@@ -3591,13 +3680,13 @@
         <v>71</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>71</v>
@@ -3615,7 +3704,7 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>81</v>
@@ -3630,7 +3719,7 @@
         <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>71</v>
@@ -3639,9 +3728,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3649,7 +3738,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>81</v>
@@ -3661,16 +3750,16 @@
         <v>71</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3697,68 +3786,68 @@
         <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
-      <c r="A23" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>71</v>
@@ -3770,15 +3859,17 @@
         <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M23" s="2"/>
+      <c r="M23" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>71</v>
@@ -3815,31 +3906,31 @@
         <v>71</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>71</v>
@@ -3848,16 +3939,16 @@
         <v>71</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3873,21 +3964,23 @@
         <v>71</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>71</v>
       </c>
@@ -3923,19 +4016,17 @@
         <v>71</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
@@ -3947,7 +4038,7 @@
         <v>71</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>71</v>
@@ -3956,14 +4047,16 @@
         <v>71</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>71</v>
       </c>
@@ -3984,19 +4077,19 @@
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>71</v>
@@ -4033,17 +4126,19 @@
         <v>71</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -4064,16 +4159,14 @@
         <v>71</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>71</v>
       </c>
@@ -4082,32 +4175,28 @@
         <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>225</v>
-      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>71</v>
       </c>
@@ -4155,19 +4244,19 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>71</v>
@@ -4176,23 +4265,23 @@
         <v>71</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>227</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>229</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>71</v>
@@ -4204,15 +4293,17 @@
         <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>71</v>
@@ -4249,31 +4340,31 @@
         <v>71</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>71</v>
@@ -4282,23 +4373,23 @@
         <v>71</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>230</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>71</v>
@@ -4307,21 +4398,23 @@
         <v>71</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>71</v>
       </c>
@@ -4330,7 +4423,7 @@
         <v>71</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>71</v>
@@ -4357,31 +4450,31 @@
         <v>71</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>71</v>
@@ -4390,12 +4483,12 @@
         <v>71</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>144</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4403,7 +4496,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>81</v>
@@ -4418,20 +4511,18 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>71</v>
       </c>
@@ -4440,7 +4531,7 @@
         <v>71</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>236</v>
+        <v>71</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>71</v>
@@ -4479,7 +4570,7 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
@@ -4500,12 +4591,12 @@
         <v>71</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4513,7 +4604,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>81</v>
@@ -4528,18 +4619,18 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>71</v>
       </c>
@@ -4587,7 +4678,7 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
@@ -4608,12 +4699,12 @@
         <v>71</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4621,7 +4712,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>81</v>
@@ -4636,17 +4727,17 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>71</v>
@@ -4695,7 +4786,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4716,12 +4807,12 @@
         <v>71</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4744,17 +4835,19 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N32" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>71</v>
@@ -4803,7 +4896,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4824,12 +4917,12 @@
         <v>71</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4852,19 +4945,19 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>258</v>
+        <v>144</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>71</v>
@@ -4913,7 +5006,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4934,12 +5027,12 @@
         <v>71</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4962,20 +5055,16 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>71</v>
       </c>
@@ -4999,13 +5088,13 @@
         <v>71</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>71</v>
+        <v>274</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>71</v>
+        <v>275</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>71</v>
@@ -5023,7 +5112,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -5038,18 +5127,18 @@
         <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>71</v>
+        <v>276</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>271</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5069,16 +5158,16 @@
         <v>71</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>273</v>
+        <v>145</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>274</v>
+        <v>146</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5105,13 +5194,13 @@
         <v>71</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>275</v>
+        <v>71</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>276</v>
+        <v>71</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>71</v>
@@ -5129,7 +5218,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>272</v>
+        <v>147</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -5141,32 +5230,32 @@
         <v>71</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>277</v>
+        <v>71</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>71</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>278</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
@@ -5178,15 +5267,17 @@
         <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M36" s="2"/>
+      <c r="M36" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>71</v>
@@ -5223,31 +5314,31 @@
         <v>71</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>71</v>
@@ -5256,16 +5347,16 @@
         <v>71</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>279</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5281,21 +5372,23 @@
         <v>71</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>71</v>
       </c>
@@ -5331,19 +5424,17 @@
         <v>71</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5355,7 +5446,7 @@
         <v>71</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>71</v>
@@ -5364,14 +5455,16 @@
         <v>71</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="C38" t="s" s="2">
         <v>71</v>
       </c>
@@ -5392,19 +5485,19 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>71</v>
@@ -5441,17 +5534,19 @@
         <v>71</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AB38" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AC38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
@@ -5472,16 +5567,14 @@
         <v>71</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="B39" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>71</v>
       </c>
@@ -5490,32 +5583,28 @@
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>225</v>
-      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>71</v>
       </c>
@@ -5563,19 +5652,19 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>71</v>
@@ -5584,23 +5673,23 @@
         <v>71</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>227</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>281</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>71</v>
@@ -5612,15 +5701,17 @@
         <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K40" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M40" s="2"/>
+      <c r="M40" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>71</v>
@@ -5657,31 +5748,31 @@
         <v>71</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>71</v>
@@ -5690,23 +5781,23 @@
         <v>71</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>282</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
@@ -5715,21 +5806,23 @@
         <v>71</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>71</v>
       </c>
@@ -5738,7 +5831,7 @@
         <v>71</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>71</v>
@@ -5765,31 +5858,31 @@
         <v>71</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>71</v>
@@ -5798,10 +5891,10 @@
         <v>71</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>144</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>283</v>
       </c>
@@ -5811,7 +5904,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>81</v>
@@ -5826,20 +5919,18 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>71</v>
       </c>
@@ -5848,7 +5939,7 @@
         <v>71</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>236</v>
+        <v>71</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>71</v>
@@ -5887,7 +5978,7 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
@@ -5908,10 +5999,10 @@
         <v>71</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>284</v>
       </c>
@@ -5921,7 +6012,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>81</v>
@@ -5936,18 +6027,18 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>71</v>
       </c>
@@ -5995,7 +6086,7 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
@@ -6016,10 +6107,10 @@
         <v>71</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>285</v>
       </c>
@@ -6029,7 +6120,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>81</v>
@@ -6044,17 +6135,17 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>71</v>
@@ -6103,7 +6194,7 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
@@ -6124,10 +6215,10 @@
         <v>71</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>286</v>
       </c>
@@ -6152,17 +6243,19 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N45" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>71</v>
@@ -6211,7 +6304,7 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
@@ -6232,10 +6325,10 @@
         <v>71</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>287</v>
       </c>
@@ -6260,19 +6353,19 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>258</v>
+        <v>144</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>71</v>
@@ -6321,7 +6414,7 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -6342,10 +6435,10 @@
         <v>71</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>288</v>
       </c>
@@ -6358,7 +6451,7 @@
         <v>72</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>71</v>
@@ -6370,20 +6463,16 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>149</v>
+        <v>289</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>71</v>
       </c>
@@ -6431,13 +6520,13 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>71</v>
@@ -6446,18 +6535,18 @@
         <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>71</v>
+        <v>292</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>271</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6471,7 +6560,7 @@
         <v>73</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>71</v>
@@ -6480,13 +6569,13 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>290</v>
+        <v>164</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6513,13 +6602,13 @@
         <v>71</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>71</v>
+        <v>296</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>71</v>
+        <v>297</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>71</v>
@@ -6537,7 +6626,7 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -6552,7 +6641,7 @@
         <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>71</v>
@@ -6561,9 +6650,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6586,13 +6675,13 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>169</v>
+        <v>300</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6619,31 +6708,29 @@
         <v>71</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>297</v>
+        <v>71</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>298</v>
+        <v>71</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>72</v>
@@ -6658,7 +6745,7 @@
         <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>71</v>
@@ -6667,9 +6754,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6680,7 +6767,7 @@
         <v>72</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>71</v>
@@ -6689,16 +6776,16 @@
         <v>71</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>301</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>302</v>
+        <v>145</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>303</v>
+        <v>146</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6749,44 +6836,44 @@
         <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>300</v>
+        <v>147</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>304</v>
+        <v>71</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>71</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>71</v>
@@ -6798,15 +6885,17 @@
         <v>71</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>71</v>
@@ -6855,19 +6944,19 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>71</v>
@@ -6876,16 +6965,16 @@
         <v>71</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>126</v>
+        <v>308</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6898,24 +6987,26 @@
         <v>71</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>127</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>128</v>
+        <v>309</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>154</v>
+        <v>310</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="N52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>71</v>
       </c>
@@ -6963,7 +7054,7 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
@@ -6984,48 +7075,44 @@
         <v>71</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>308</v>
+        <v>71</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>71</v>
       </c>
@@ -7049,13 +7136,13 @@
         <v>71</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>71</v>
+        <v>315</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>71</v>
+        <v>316</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>71</v>
@@ -7073,33 +7160,33 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>71</v>
+        <v>317</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>124</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7107,7 +7194,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>81</v>
@@ -7122,13 +7209,13 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7155,13 +7242,13 @@
         <v>71</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>71</v>
@@ -7179,10 +7266,10 @@
         <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -7194,7 +7281,7 @@
         <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>71</v>
@@ -7203,11 +7290,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="C55" t="s" s="2">
         <v>71</v>
       </c>
@@ -7216,7 +7305,7 @@
         <v>72</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>71</v>
@@ -7228,13 +7317,13 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7285,13 +7374,13 @@
         <v>71</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>71</v>
@@ -7300,34 +7389,4956 @@
         <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>71</v>
+      <c r="AK60" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AB96" s="2"/>
+      <c r="AC96" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL55">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="337">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T13:40:44+00:00</t>
+    <t>2022-03-21T12:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -512,7 +512,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -653,25 +653,16 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.6.0|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>ManufacturedItemDefinition.manufacturedDoseForm</t>
   </si>
   <si>
-    <t>Dose form as manufactured (before any necessary transformation)</t>
+    <t>Dose form as manufactured and before any transformation into the pharmaceutical product</t>
   </si>
   <si>
     <t>Dose form as manufactured and before any transformation into the pharmaceutical product.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Dose form for a medication, in the form suitable for administering to the patient, after mixing, where necessary.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/manufactured-dose-form</t>
   </si>
   <si>
     <t>Manufactured Item.Manufactured Dose Form</t>
@@ -854,16 +845,10 @@
     <t>ManufacturedItemDefinition.unitOfPresentation</t>
   </si>
   <si>
-    <t>The “real world” units in which the quantity of the item is described</t>
+    <t>The “real world” units in which the quantity of the manufactured item is described</t>
   </si>
   <si>
     <t>The “real world” units in which the quantity of the manufactured item is described.</t>
-  </si>
-  <si>
-    <t>The presentation type in which an administrable medicinal product is given to a patient.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/unit-of-presentation</t>
   </si>
   <si>
     <t>Manufactured Item.Unit of Presentation</t>
@@ -921,16 +906,10 @@
     <t>ManufacturedItemDefinition.ingredient</t>
   </si>
   <si>
-    <t>The ingredients of this manufactured item. Only needed if these are not specified by incoming references from the Ingredient resource</t>
+    <t>The ingredients of this manufactured item. This is only needed if the ingredients are not specified by incoming references from the Ingredient resource</t>
   </si>
   <si>
     <t>The ingredients of this manufactured item. This is only needed if the ingredients are not specified by incoming references from the Ingredient resource.</t>
-  </si>
-  <si>
-    <t>This value set includes all substance codes from SNOMED CT - provided as an exemplar value set.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-codes</t>
   </si>
   <si>
     <t>Manufactured Item.Ingredient (see also FHIR Ingredient resource)</t>
@@ -986,12 +965,6 @@
   </si>
   <si>
     <t>A code expressing the type of characteristic.</t>
-  </si>
-  <si>
-    <t>This value set includes all observable entity codes from SNOMED CT - provided as an exemplar value set.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/product-characteristic-codes</t>
   </si>
   <si>
     <t>Physical Characteristics, all attributes</t>
@@ -1432,7 +1405,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="132.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="140.3125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1445,7 +1418,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="104.42578125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="31.765625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.78515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
@@ -3680,13 +3653,13 @@
         <v>71</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>71</v>
@@ -3719,7 +3692,7 @@
         <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>71</v>
@@ -3730,7 +3703,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3836,7 +3809,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3944,7 +3917,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3967,19 +3940,19 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>71</v>
@@ -4016,7 +3989,7 @@
         <v>71</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
@@ -4026,7 +3999,7 @@
         <v>152</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
@@ -4047,15 +4020,15 @@
         <v>71</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>71</v>
@@ -4077,19 +4050,19 @@
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="N25" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>71</v>
@@ -4138,7 +4111,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -4159,12 +4132,12 @@
         <v>71</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4270,7 +4243,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4378,7 +4351,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4404,16 +4377,16 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>71</v>
@@ -4423,7 +4396,7 @@
         <v>71</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>71</v>
@@ -4462,7 +4435,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -4483,12 +4456,12 @@
         <v>71</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4514,13 +4487,13 @@
         <v>144</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4570,7 +4543,7 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
@@ -4591,12 +4564,12 @@
         <v>71</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4622,14 +4595,14 @@
         <v>101</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>71</v>
@@ -4678,7 +4651,7 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
@@ -4699,12 +4672,12 @@
         <v>71</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4730,14 +4703,14 @@
         <v>144</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>71</v>
@@ -4786,7 +4759,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4807,12 +4780,12 @@
         <v>71</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4835,19 +4808,19 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>71</v>
@@ -4896,7 +4869,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4917,12 +4890,12 @@
         <v>71</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4948,16 +4921,16 @@
         <v>144</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>71</v>
@@ -5006,7 +4979,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -5027,12 +5000,12 @@
         <v>71</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5058,10 +5031,10 @@
         <v>164</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5088,13 +5061,13 @@
         <v>71</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>274</v>
+        <v>71</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>275</v>
+        <v>71</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>71</v>
@@ -5112,7 +5085,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -5127,7 +5100,7 @@
         <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>71</v>
@@ -5138,7 +5111,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5244,7 +5217,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5352,7 +5325,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5375,19 +5348,19 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>71</v>
@@ -5424,7 +5397,7 @@
         <v>71</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
@@ -5434,7 +5407,7 @@
         <v>152</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5455,15 +5428,15 @@
         <v>71</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>71</v>
@@ -5485,19 +5458,19 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="N38" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>71</v>
@@ -5546,7 +5519,7 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
@@ -5567,12 +5540,12 @@
         <v>71</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5678,7 +5651,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5786,7 +5759,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5812,16 +5785,16 @@
         <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>71</v>
@@ -5831,7 +5804,7 @@
         <v>71</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>71</v>
@@ -5870,7 +5843,7 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
@@ -5891,12 +5864,12 @@
         <v>71</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5922,13 +5895,13 @@
         <v>144</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5978,7 +5951,7 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
@@ -5999,12 +5972,12 @@
         <v>71</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6030,14 +6003,14 @@
         <v>101</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>71</v>
@@ -6086,7 +6059,7 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
@@ -6107,12 +6080,12 @@
         <v>71</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6138,14 +6111,14 @@
         <v>144</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>71</v>
@@ -6194,7 +6167,7 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
@@ -6215,12 +6188,12 @@
         <v>71</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6243,19 +6216,19 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>71</v>
@@ -6304,7 +6277,7 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
@@ -6325,12 +6298,12 @@
         <v>71</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6356,16 +6329,16 @@
         <v>144</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>71</v>
@@ -6414,7 +6387,7 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -6435,12 +6408,12 @@
         <v>71</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6463,13 +6436,13 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6520,7 +6493,7 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
@@ -6535,7 +6508,7 @@
         <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>71</v>
@@ -6546,7 +6519,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6572,10 +6545,10 @@
         <v>164</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6602,13 +6575,13 @@
         <v>71</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>296</v>
+        <v>71</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>297</v>
+        <v>71</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>71</v>
@@ -6626,7 +6599,7 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -6641,7 +6614,7 @@
         <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>71</v>
@@ -6652,7 +6625,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6675,13 +6648,13 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6720,7 +6693,7 @@
         <v>71</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
@@ -6730,7 +6703,7 @@
         <v>152</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>72</v>
@@ -6745,7 +6718,7 @@
         <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>71</v>
@@ -6756,7 +6729,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6862,7 +6835,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6970,11 +6943,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6996,10 +6969,10 @@
         <v>127</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>130</v>
@@ -7054,7 +7027,7 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
@@ -7080,7 +7053,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7106,10 +7079,10 @@
         <v>164</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7136,13 +7109,13 @@
         <v>71</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>71</v>
@@ -7160,7 +7133,7 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>81</v>
@@ -7175,7 +7148,7 @@
         <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>71</v>
@@ -7186,7 +7159,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7209,13 +7182,13 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7266,7 +7239,7 @@
         <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
@@ -7281,7 +7254,7 @@
         <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>71</v>
@@ -7292,10 +7265,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>71</v>
@@ -7317,13 +7290,13 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7374,7 +7347,7 @@
         <v>71</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
@@ -7389,7 +7362,7 @@
         <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>71</v>
@@ -7400,7 +7373,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7506,7 +7479,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7614,11 +7587,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7640,10 +7613,10 @@
         <v>127</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>130</v>
@@ -7698,7 +7671,7 @@
         <v>71</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>72</v>
@@ -7724,7 +7697,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7750,10 +7723,10 @@
         <v>164</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7765,7 +7738,7 @@
         <v>71</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>71</v>
@@ -7780,13 +7753,13 @@
         <v>71</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>71</v>
@@ -7804,7 +7777,7 @@
         <v>71</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>81</v>
@@ -7819,7 +7792,7 @@
         <v>93</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>71</v>
@@ -7830,7 +7803,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7856,10 +7829,10 @@
         <v>164</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7910,7 +7883,7 @@
         <v>71</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>72</v>
@@ -7925,7 +7898,7 @@
         <v>93</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>71</v>
@@ -7936,10 +7909,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>71</v>
@@ -7961,13 +7934,13 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8018,7 +7991,7 @@
         <v>71</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>72</v>
@@ -8033,7 +8006,7 @@
         <v>93</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>71</v>
@@ -8044,7 +8017,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8150,7 +8123,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8258,11 +8231,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8284,10 +8257,10 @@
         <v>127</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>130</v>
@@ -8342,7 +8315,7 @@
         <v>71</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>72</v>
@@ -8368,7 +8341,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8394,10 +8367,10 @@
         <v>164</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8409,7 +8382,7 @@
         <v>71</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>71</v>
@@ -8424,13 +8397,13 @@
         <v>71</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>71</v>
@@ -8448,7 +8421,7 @@
         <v>71</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>81</v>
@@ -8463,7 +8436,7 @@
         <v>93</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>71</v>
@@ -8474,7 +8447,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8500,10 +8473,10 @@
         <v>164</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8554,7 +8527,7 @@
         <v>71</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>72</v>
@@ -8569,7 +8542,7 @@
         <v>93</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>71</v>
@@ -8580,10 +8553,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>71</v>
@@ -8605,13 +8578,13 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8662,7 +8635,7 @@
         <v>71</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>72</v>
@@ -8677,7 +8650,7 @@
         <v>93</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>71</v>
@@ -8688,7 +8661,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8794,7 +8767,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8902,11 +8875,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -8928,10 +8901,10 @@
         <v>127</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>130</v>
@@ -8986,7 +8959,7 @@
         <v>71</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>72</v>
@@ -9012,7 +8985,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9038,10 +9011,10 @@
         <v>164</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9053,7 +9026,7 @@
         <v>71</v>
       </c>
       <c r="R71" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>71</v>
@@ -9068,13 +9041,13 @@
         <v>71</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>71</v>
@@ -9092,7 +9065,7 @@
         <v>71</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>81</v>
@@ -9107,7 +9080,7 @@
         <v>93</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>71</v>
@@ -9118,7 +9091,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9144,10 +9117,10 @@
         <v>164</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9198,7 +9171,7 @@
         <v>71</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>72</v>
@@ -9213,7 +9186,7 @@
         <v>93</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>71</v>
@@ -9224,10 +9197,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>71</v>
@@ -9249,13 +9222,13 @@
         <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9306,7 +9279,7 @@
         <v>71</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>72</v>
@@ -9321,7 +9294,7 @@
         <v>93</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>71</v>
@@ -9332,7 +9305,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9438,7 +9411,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9546,11 +9519,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9572,10 +9545,10 @@
         <v>127</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>130</v>
@@ -9630,7 +9603,7 @@
         <v>71</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>72</v>
@@ -9656,7 +9629,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9682,10 +9655,10 @@
         <v>164</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9697,7 +9670,7 @@
         <v>71</v>
       </c>
       <c r="R77" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>71</v>
@@ -9712,13 +9685,13 @@
         <v>71</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>71</v>
@@ -9736,7 +9709,7 @@
         <v>71</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>81</v>
@@ -9751,7 +9724,7 @@
         <v>93</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>71</v>
@@ -9762,7 +9735,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9788,10 +9761,10 @@
         <v>164</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9842,7 +9815,7 @@
         <v>71</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>72</v>
@@ -9857,7 +9830,7 @@
         <v>93</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>71</v>
@@ -9868,10 +9841,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>71</v>
@@ -9893,13 +9866,13 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9950,7 +9923,7 @@
         <v>71</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>72</v>
@@ -9965,7 +9938,7 @@
         <v>93</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>71</v>
@@ -9976,7 +9949,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10082,7 +10055,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10190,11 +10163,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10216,10 +10189,10 @@
         <v>127</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>130</v>
@@ -10274,7 +10247,7 @@
         <v>71</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>72</v>
@@ -10300,7 +10273,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10326,10 +10299,10 @@
         <v>164</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10341,7 +10314,7 @@
         <v>71</v>
       </c>
       <c r="R83" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>71</v>
@@ -10356,13 +10329,13 @@
         <v>71</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>71</v>
@@ -10380,7 +10353,7 @@
         <v>71</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>81</v>
@@ -10395,7 +10368,7 @@
         <v>93</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>71</v>
@@ -10406,7 +10379,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10429,13 +10402,13 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10486,7 +10459,7 @@
         <v>71</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>72</v>
@@ -10501,7 +10474,7 @@
         <v>93</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>71</v>
@@ -10512,10 +10485,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>71</v>
@@ -10537,13 +10510,13 @@
         <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10594,7 +10567,7 @@
         <v>71</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>72</v>
@@ -10609,7 +10582,7 @@
         <v>93</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>71</v>
@@ -10620,7 +10593,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10726,7 +10699,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10834,11 +10807,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -10860,10 +10833,10 @@
         <v>127</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>130</v>
@@ -10918,7 +10891,7 @@
         <v>71</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>72</v>
@@ -10944,7 +10917,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10970,10 +10943,10 @@
         <v>164</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -10985,7 +10958,7 @@
         <v>71</v>
       </c>
       <c r="R89" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>71</v>
@@ -11000,13 +10973,13 @@
         <v>71</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>71</v>
@@ -11024,7 +10997,7 @@
         <v>71</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>81</v>
@@ -11039,7 +11012,7 @@
         <v>93</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>71</v>
@@ -11050,7 +11023,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11073,13 +11046,13 @@
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11130,7 +11103,7 @@
         <v>71</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>72</v>
@@ -11145,7 +11118,7 @@
         <v>93</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>71</v>
@@ -11156,10 +11129,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>71</v>
@@ -11181,13 +11154,13 @@
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11238,7 +11211,7 @@
         <v>71</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>72</v>
@@ -11253,7 +11226,7 @@
         <v>93</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>71</v>
@@ -11264,7 +11237,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11370,7 +11343,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11478,11 +11451,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -11504,10 +11477,10 @@
         <v>127</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>130</v>
@@ -11562,7 +11535,7 @@
         <v>71</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>72</v>
@@ -11588,7 +11561,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11614,10 +11587,10 @@
         <v>164</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11629,7 +11602,7 @@
         <v>71</v>
       </c>
       <c r="R95" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>71</v>
@@ -11644,13 +11617,13 @@
         <v>71</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>71</v>
@@ -11668,7 +11641,7 @@
         <v>71</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>81</v>
@@ -11683,7 +11656,7 @@
         <v>93</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>71</v>
@@ -11694,7 +11667,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11717,13 +11690,13 @@
         <v>82</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -11762,7 +11735,7 @@
         <v>71</v>
       </c>
       <c r="AA96" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="AB96" s="2"/>
       <c r="AC96" t="s" s="2">
@@ -11772,7 +11745,7 @@
         <v>152</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>72</v>
@@ -11787,7 +11760,7 @@
         <v>93</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>71</v>
@@ -11798,10 +11771,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>71</v>
@@ -11826,10 +11799,10 @@
         <v>164</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -11880,7 +11853,7 @@
         <v>71</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>72</v>
@@ -11895,7 +11868,7 @@
         <v>93</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>71</v>
@@ -11906,7 +11879,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12012,7 +11985,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12120,7 +12093,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12143,19 +12116,19 @@
         <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>71</v>
@@ -12204,7 +12177,7 @@
         <v>71</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>72</v>
@@ -12225,12 +12198,12 @@
         <v>71</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12256,16 +12229,16 @@
         <v>144</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N101" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>71</v>
@@ -12314,7 +12287,7 @@
         <v>71</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>72</v>
@@ -12335,7 +12308,7 @@
         <v>71</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T12:30:51+00:00</t>
+    <t>2022-04-20T15:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T15:40:19+00:00</t>
+    <t>2022-04-21T09:31:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T09:31:27+00:00</t>
+    <t>2022-04-22T15:46:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:46:20+00:00</t>
+    <t>2022-04-22T16:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T16:02:12+00:00</t>
+    <t>2022-04-23T06:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-23T06:29:29+00:00</t>
+    <t>2022-04-24T15:59:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T15:59:48+00:00</t>
+    <t>2022-04-24T16:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:46:49+00:00</t>
+    <t>2022-04-24T16:56:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:56:32+00:00</t>
+    <t>2022-04-24T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:04:20+00:00</t>
+    <t>2022-04-24T17:58:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:58:11+00:00</t>
+    <t>2022-04-24T18:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:29:29+00:00</t>
+    <t>2022-04-24T18:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:34:57+00:00</t>
+    <t>2022-04-24T18:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:37:31+00:00</t>
+    <t>2022-04-25T21:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T21:02:51+00:00</t>
+    <t>2022-04-28T02:47:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T02:47:58+00:00</t>
+    <t>2022-04-29T16:37:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T16:37:30+00:00</t>
+    <t>2022-05-01T14:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T14:48:42+00:00</t>
+    <t>2022-05-01T15:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:28:00+00:00</t>
+    <t>2022-05-01T15:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:49:46+00:00</t>
+    <t>2022-05-04T10:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:49:28+00:00</t>
+    <t>2022-05-04T11:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T11:35:34+00:00</t>
+    <t>2022-05-29T13:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T13:16:26+00:00</t>
+    <t>2022-06-23T05:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-23T05:00:29+00:00</t>
+    <t>2022-06-29T00:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T00:50:05+00:00</t>
+    <t>2022-06-29T01:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:04:59+00:00</t>
+    <t>2022-06-29T01:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:14:41+00:00</t>
+    <t>2022-06-29T01:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:16:19+00:00</t>
+    <t>2022-06-29T01:17:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:29+00:00</t>
+    <t>2022-06-29T01:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:50+00:00</t>
+    <t>2022-06-29T01:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:22:39+00:00</t>
+    <t>2022-06-30T08:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T08:49:36+00:00</t>
+    <t>2022-07-03T14:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T14:34:33+00:00</t>
+    <t>2022-07-03T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T20:46:11+00:00</t>
+    <t>2022-07-03T23:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T23:30:51+00:00</t>
+    <t>2022-07-04T02:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T02:50:37+00:00</t>
+    <t>2022-07-04T03:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:38:46+00:00</t>
+    <t>2022-07-04T03:54:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:54:38+00:00</t>
+    <t>2022-07-04T04:08:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:08:16+00:00</t>
+    <t>2022-07-04T04:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:22:11+00:00</t>
+    <t>2022-07-04T04:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:38:42+00:00</t>
+    <t>2022-07-04T11:32:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T11:32:16+00:00</t>
+    <t>2022-07-04T15:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:16:30+00:00</t>
+    <t>2022-07-04T15:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:23:30+00:00</t>
+    <t>2022-07-04T19:18:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:18:20+00:00</t>
+    <t>2022-07-04T19:34:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:34:40+00:00</t>
+    <t>2022-07-04T19:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:42:20+00:00</t>
+    <t>2022-07-05T12:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:21:33+00:00</t>
+    <t>2022-07-05T15:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:17:01+00:00</t>
+    <t>2022-07-05T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:19:17+00:00</t>
+    <t>2022-07-05T15:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:30:33+00:00</t>
+    <t>2022-07-05T18:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:45:13+00:00</t>
+    <t>2022-07-05T18:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:08+00:00</t>
+    <t>2022-07-05T18:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:30+00:00</t>
+    <t>2022-07-05T18:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:56:38+00:00</t>
+    <t>2022-07-05T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:57:01+00:00</t>
+    <t>2022-07-05T19:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T19:10:35+00:00</t>
+    <t>2022-07-08T09:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:19:23+00:00</t>
+    <t>2022-07-08T09:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:27:24+00:00</t>
+    <t>2022-07-08T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:29:32+00:00</t>
+    <t>2022-07-09T13:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:36:28+00:00</t>
+    <t>2022-07-09T13:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:48:36+00:00</t>
+    <t>2022-07-09T14:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T14:07:10+00:00</t>
+    <t>2022-07-09T15:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:00:13+00:00</t>
+    <t>2022-07-09T15:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:12:02+00:00</t>
+    <t>2022-07-10T01:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:20:38+00:00</t>
+    <t>2022-07-10T01:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:52:20+00:00</t>
+    <t>2022-07-10T01:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:56:06+00:00</t>
+    <t>2022-07-11T16:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-11T16:11:05+00:00</t>
+    <t>2022-07-18T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1396,39 +1396,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="68.91796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="140.3125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="140.31640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="31.765625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="31.76953125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.78515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="49.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="49.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="61.49609375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T10:16:10+00:00</t>
+    <t>2022-08-04T10:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:24:58+00:00</t>
+    <t>2022-08-04T10:31:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:31:18+00:00</t>
+    <t>2022-08-08T10:51:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:51:00+00:00</t>
+    <t>2022-08-08T11:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:05:17+00:00</t>
+    <t>2022-08-08T11:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:11:55+00:00</t>
+    <t>2022-08-09T00:31:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:31:42+00:00</t>
+    <t>2022-08-09T00:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:49:42+00:00</t>
+    <t>2022-08-09T01:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T01:06:50+00:00</t>
+    <t>2022-08-20T17:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T17:56:01+00:00</t>
+    <t>2022-08-20T18:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:05:15+00:00</t>
+    <t>2022-08-20T18:51:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:51:18+00:00</t>
+    <t>2022-08-20T19:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T19:15:31+00:00</t>
+    <t>2022-08-20T20:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:17:00+00:00</t>
+    <t>2022-08-20T20:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:30:56+00:00</t>
+    <t>2022-08-20T20:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:40:03+00:00</t>
+    <t>2022-08-23T21:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:43:15+00:00</t>
+    <t>2022-08-25T03:29:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T03:29:49+00:00</t>
+    <t>2022-08-26T02:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ManufacturedItemDefinition-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/ManufacturedItemDefinition-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T02:06:18+00:00</t>
+    <t>2022-08-29T07:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -567,7 +567,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/ValueSet/manufacturedItemIdSystems</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/ValueSet/manufacturedItemIdSystems</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -890,7 +890,7 @@
     <t>ManufacturedItemDefinition.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/Organization-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/Organization-uv-epi)
 </t>
   </si>
   <si>
@@ -1419,7 +1419,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="31.76953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.78515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.83203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
+++ b/StructureDefinition-ManufacturedItemDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T07:02:49+00:00</t>
+    <t>2022-09-02T12:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
